--- a/converter/data/xlsx/13.12.B_SMJENA.XLSX
+++ b/converter/data/xlsx/13.12.B_SMJENA.XLSX
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDD7931-A3A0-4CDC-9F43-B55A50269B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21840" windowHeight="12570" tabRatio="478"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="8" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="105">
   <si>
     <t>Predmetni profesor:</t>
   </si>
@@ -404,9 +410,6 @@
     <t>2C</t>
   </si>
   <si>
-    <t>2C - SB</t>
-  </si>
-  <si>
     <t xml:space="preserve">2C - SB </t>
   </si>
   <si>
@@ -416,8 +419,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="40">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3245,6 +3248,42 @@
     <xf numFmtId="0" fontId="29" fillId="24" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3269,56 +3308,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normalno 2" xfId="1"/>
-    <cellStyle name="Normalno 3" xfId="5"/>
-    <cellStyle name="Normalno 4" xfId="6"/>
-    <cellStyle name="Normalno 5" xfId="7"/>
-    <cellStyle name="Normalno 7" xfId="8"/>
-    <cellStyle name="Obično" xfId="0" builtinId="0"/>
-    <cellStyle name="Obično 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normalno 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normalno 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normalno 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normalno 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Obično 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3362,7 +3365,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3422,7 +3425,7 @@
         <xdr:cNvPr id="4" name="Ravni poveznik sa strelicom 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3475,7 +3478,7 @@
         <xdr:cNvPr id="6" name="Ravni poveznik sa strelicom 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3514,7 +3517,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3556,7 +3559,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3588,9 +3591,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3622,6 +3643,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3797,133 +3836,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AF29" sqref="AF29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Z53" sqref="Z53:AC53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="6" customWidth="1"/>
-    <col min="9" max="11" width="6.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="6" customWidth="1"/>
-    <col min="16" max="17" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" style="6" customWidth="1"/>
-    <col min="23" max="24" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="5.5703125" style="6" customWidth="1"/>
-    <col min="28" max="29" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="5.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="6" customWidth="1"/>
+    <col min="9" max="11" width="6.5546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="6" customWidth="1"/>
+    <col min="16" max="17" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.5546875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" style="6" customWidth="1"/>
+    <col min="23" max="24" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="5.5546875" style="6" customWidth="1"/>
+    <col min="28" max="29" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="5.5546875" style="6" customWidth="1"/>
     <col min="34" max="34" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" style="6" customWidth="1"/>
-    <col min="37" max="37" width="6.140625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="35" max="35" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.5546875" style="6" customWidth="1"/>
+    <col min="37" max="37" width="6.109375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="27" thickBot="1">
-      <c r="A1" s="455" t="s">
+    <row r="1" spans="1:37" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="467" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="455"/>
-      <c r="C1" s="455"/>
-      <c r="D1" s="455"/>
-      <c r="E1" s="455"/>
-      <c r="F1" s="455"/>
-      <c r="G1" s="455"/>
-      <c r="H1" s="455"/>
-      <c r="I1" s="455"/>
-      <c r="J1" s="455"/>
-      <c r="K1" s="455"/>
-      <c r="L1" s="455"/>
-      <c r="M1" s="455"/>
-      <c r="N1" s="455"/>
-      <c r="O1" s="455"/>
-      <c r="P1" s="455"/>
-      <c r="Q1" s="455"/>
-      <c r="R1" s="455"/>
-      <c r="S1" s="455"/>
-      <c r="T1" s="455"/>
-      <c r="U1" s="455"/>
-      <c r="V1" s="455"/>
-      <c r="W1" s="455"/>
-      <c r="X1" s="455"/>
-      <c r="Y1" s="455"/>
-      <c r="Z1" s="455"/>
-      <c r="AA1" s="455"/>
-      <c r="AB1" s="455"/>
-      <c r="AC1" s="455"/>
-      <c r="AD1" s="455"/>
-      <c r="AE1" s="455"/>
-      <c r="AF1" s="455"/>
-      <c r="AG1" s="455"/>
-      <c r="AH1" s="455"/>
-      <c r="AI1" s="455"/>
-      <c r="AJ1" s="455"/>
-    </row>
-    <row r="2" spans="1:37" ht="18">
+      <c r="B1" s="467"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="467"/>
+      <c r="E1" s="467"/>
+      <c r="F1" s="467"/>
+      <c r="G1" s="467"/>
+      <c r="H1" s="467"/>
+      <c r="I1" s="467"/>
+      <c r="J1" s="467"/>
+      <c r="K1" s="467"/>
+      <c r="L1" s="467"/>
+      <c r="M1" s="467"/>
+      <c r="N1" s="467"/>
+      <c r="O1" s="467"/>
+      <c r="P1" s="467"/>
+      <c r="Q1" s="467"/>
+      <c r="R1" s="467"/>
+      <c r="S1" s="467"/>
+      <c r="T1" s="467"/>
+      <c r="U1" s="467"/>
+      <c r="V1" s="467"/>
+      <c r="W1" s="467"/>
+      <c r="X1" s="467"/>
+      <c r="Y1" s="467"/>
+      <c r="Z1" s="467"/>
+      <c r="AA1" s="467"/>
+      <c r="AB1" s="467"/>
+      <c r="AC1" s="467"/>
+      <c r="AD1" s="467"/>
+      <c r="AE1" s="467"/>
+      <c r="AF1" s="467"/>
+      <c r="AG1" s="467"/>
+      <c r="AH1" s="467"/>
+      <c r="AI1" s="467"/>
+      <c r="AJ1" s="467"/>
+    </row>
+    <row r="2" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="456" t="s">
+      <c r="B2" s="468" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="457"/>
-      <c r="D2" s="457"/>
-      <c r="E2" s="457"/>
-      <c r="F2" s="457"/>
-      <c r="G2" s="457"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="459" t="s">
+      <c r="C2" s="469"/>
+      <c r="D2" s="469"/>
+      <c r="E2" s="469"/>
+      <c r="F2" s="469"/>
+      <c r="G2" s="469"/>
+      <c r="H2" s="470"/>
+      <c r="I2" s="471" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="457"/>
-      <c r="K2" s="457"/>
-      <c r="L2" s="457"/>
-      <c r="M2" s="457"/>
-      <c r="N2" s="457"/>
-      <c r="O2" s="458"/>
-      <c r="P2" s="456" t="s">
+      <c r="J2" s="469"/>
+      <c r="K2" s="469"/>
+      <c r="L2" s="469"/>
+      <c r="M2" s="469"/>
+      <c r="N2" s="469"/>
+      <c r="O2" s="470"/>
+      <c r="P2" s="468" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="457"/>
-      <c r="R2" s="457"/>
-      <c r="S2" s="457"/>
-      <c r="T2" s="457"/>
-      <c r="U2" s="457"/>
-      <c r="V2" s="458"/>
-      <c r="W2" s="459" t="s">
+      <c r="Q2" s="469"/>
+      <c r="R2" s="469"/>
+      <c r="S2" s="469"/>
+      <c r="T2" s="469"/>
+      <c r="U2" s="469"/>
+      <c r="V2" s="470"/>
+      <c r="W2" s="471" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="457"/>
-      <c r="Y2" s="457"/>
-      <c r="Z2" s="457"/>
-      <c r="AA2" s="457"/>
-      <c r="AB2" s="457"/>
-      <c r="AC2" s="458"/>
-      <c r="AD2" s="460" t="s">
+      <c r="X2" s="469"/>
+      <c r="Y2" s="469"/>
+      <c r="Z2" s="469"/>
+      <c r="AA2" s="469"/>
+      <c r="AB2" s="469"/>
+      <c r="AC2" s="470"/>
+      <c r="AD2" s="472" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="461"/>
-      <c r="AF2" s="461"/>
-      <c r="AG2" s="461"/>
-      <c r="AH2" s="461"/>
-      <c r="AI2" s="461"/>
-      <c r="AJ2" s="462"/>
-    </row>
-    <row r="3" spans="1:37" ht="15.75" thickBot="1">
+      <c r="AE2" s="473"/>
+      <c r="AF2" s="473"/>
+      <c r="AG2" s="473"/>
+      <c r="AH2" s="473"/>
+      <c r="AI2" s="473"/>
+      <c r="AJ2" s="474"/>
+    </row>
+    <row r="3" spans="1:37" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -4033,7 +4072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1">
+    <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
         <v>71</v>
       </c>
@@ -4111,7 +4150,7 @@
       <c r="AI4" s="26"/>
       <c r="AJ4" s="153"/>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1">
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="263" t="s">
         <v>72</v>
       </c>
@@ -4185,7 +4224,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="264" t="s">
         <v>59</v>
       </c>
@@ -4249,7 +4288,7 @@
       <c r="AI6" s="20"/>
       <c r="AJ6" s="38"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1">
+    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="265" t="s">
         <v>48</v>
       </c>
@@ -4315,7 +4354,7 @@
       <c r="AI7" s="11"/>
       <c r="AJ7" s="30"/>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1">
+    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>74</v>
       </c>
@@ -4391,7 +4430,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1">
+    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>60</v>
       </c>
@@ -4465,7 +4504,7 @@
       <c r="AI9" s="35"/>
       <c r="AJ9" s="24"/>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="10" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="264" t="s">
         <v>8</v>
       </c>
@@ -4509,7 +4548,7 @@
       <c r="AI10" s="20"/>
       <c r="AJ10" s="38"/>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1">
+    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="265" t="s">
         <v>15</v>
       </c>
@@ -4569,7 +4608,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1">
+    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="265" t="s">
         <v>66</v>
       </c>
@@ -4613,7 +4652,7 @@
       <c r="AI12" s="11"/>
       <c r="AJ12" s="30"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="265" t="s">
         <v>12</v>
       </c>
@@ -4670,7 +4709,7 @@
       <c r="AJ13" s="30"/>
       <c r="AK13" s="93"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="266" t="s">
         <v>10</v>
       </c>
@@ -4727,7 +4766,7 @@
       <c r="AJ14" s="30"/>
       <c r="AK14" s="93"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="266" t="s">
         <v>31</v>
       </c>
@@ -4780,7 +4819,7 @@
       <c r="AJ15" s="30"/>
       <c r="AK15" s="93"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="266" t="s">
         <v>40</v>
       </c>
@@ -4845,7 +4884,7 @@
       <c r="AJ16" s="30"/>
       <c r="AK16" s="93"/>
     </row>
-    <row r="17" spans="1:39" ht="18" customHeight="1">
+    <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="263" t="s">
         <v>5</v>
       </c>
@@ -4886,7 +4925,7 @@
       <c r="AJ17" s="40"/>
       <c r="AK17" s="93"/>
     </row>
-    <row r="18" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="18" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
@@ -4948,7 +4987,7 @@
       <c r="AK18" s="93"/>
       <c r="AL18" s="93"/>
     </row>
-    <row r="19" spans="1:39" ht="18" customHeight="1">
+    <row r="19" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="263" t="s">
         <v>49</v>
       </c>
@@ -5023,7 +5062,7 @@
       </c>
       <c r="AM19" s="93"/>
     </row>
-    <row r="20" spans="1:39" ht="18" customHeight="1">
+    <row r="20" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="263" t="s">
         <v>16</v>
       </c>
@@ -5073,7 +5112,7 @@
       <c r="AI20" s="35"/>
       <c r="AJ20" s="24"/>
     </row>
-    <row r="21" spans="1:39" ht="18" customHeight="1">
+    <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="263" t="s">
         <v>81</v>
       </c>
@@ -5136,7 +5175,7 @@
       <c r="AJ21" s="24"/>
       <c r="AL21" s="93"/>
     </row>
-    <row r="22" spans="1:39" ht="18" customHeight="1">
+    <row r="22" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="263" t="s">
         <v>65</v>
       </c>
@@ -5201,7 +5240,7 @@
       </c>
       <c r="AL22" s="93"/>
     </row>
-    <row r="23" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="23" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="264" t="s">
         <v>32</v>
       </c>
@@ -5279,7 +5318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="18" customHeight="1">
+    <row r="24" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="250" t="s">
         <v>27</v>
       </c>
@@ -5371,7 +5410,7 @@
       <c r="AK24" s="157"/>
       <c r="AL24" s="157"/>
     </row>
-    <row r="25" spans="1:39" ht="18" customHeight="1">
+    <row r="25" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="265" t="s">
         <v>28</v>
       </c>
@@ -5441,7 +5480,7 @@
       <c r="AK25" s="158"/>
       <c r="AL25" s="159"/>
     </row>
-    <row r="26" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="26" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="251" t="s">
         <v>26</v>
       </c>
@@ -5532,7 +5571,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="18" customHeight="1">
+    <row r="27" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="265" t="s">
         <v>25</v>
       </c>
@@ -5627,7 +5666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="18" customHeight="1">
+    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="266" t="s">
         <v>13</v>
       </c>
@@ -5704,7 +5743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="18" customHeight="1">
+    <row r="29" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="263" t="s">
         <v>39</v>
       </c>
@@ -5771,7 +5810,7 @@
       </c>
       <c r="AK29" s="117"/>
     </row>
-    <row r="30" spans="1:39" ht="18" customHeight="1">
+    <row r="30" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="263" t="s">
         <v>6</v>
       </c>
@@ -5822,7 +5861,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="18" customHeight="1">
+    <row r="31" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>30</v>
       </c>
@@ -5925,7 +5964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="18" customHeight="1">
+    <row r="32" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="263" t="s">
         <v>11</v>
       </c>
@@ -6012,7 +6051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="33" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="264" t="s">
         <v>7</v>
       </c>
@@ -6093,7 +6132,7 @@
       </c>
       <c r="AK33" s="116"/>
     </row>
-    <row r="34" spans="1:37" ht="18" customHeight="1">
+    <row r="34" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="252" t="s">
         <v>50</v>
       </c>
@@ -6181,7 +6220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="18" customHeight="1">
+    <row r="35" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>75</v>
       </c>
@@ -6271,7 +6310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="18" customHeight="1">
+    <row r="36" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="263" t="s">
         <v>41</v>
       </c>
@@ -6351,7 +6390,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="18" customHeight="1">
+    <row r="37" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="263" t="s">
         <v>29</v>
       </c>
@@ -6399,7 +6438,7 @@
       <c r="AI37" s="35"/>
       <c r="AJ37" s="48"/>
     </row>
-    <row r="38" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="38" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="264" t="s">
         <v>42</v>
       </c>
@@ -6463,7 +6502,7 @@
       <c r="AI38" s="20"/>
       <c r="AJ38" s="141"/>
     </row>
-    <row r="39" spans="1:37" ht="22.15" customHeight="1">
+    <row r="39" spans="1:37" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="266" t="s">
         <v>14</v>
       </c>
@@ -6528,7 +6567,7 @@
       <c r="AJ39" s="40"/>
       <c r="AK39" s="90"/>
     </row>
-    <row r="40" spans="1:37" ht="18" customHeight="1">
+    <row r="40" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="263" t="s">
         <v>58</v>
       </c>
@@ -6583,7 +6622,7 @@
       <c r="AJ40" s="40"/>
       <c r="AK40" s="90"/>
     </row>
-    <row r="41" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="41" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>64</v>
       </c>
@@ -6678,9 +6717,9 @@
       </c>
       <c r="AK41" s="90"/>
     </row>
-    <row r="42" spans="1:37" ht="18" customHeight="1">
+    <row r="42" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="265" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" s="59"/>
       <c r="C42" s="60"/>
@@ -6728,7 +6767,7 @@
       <c r="AI42" s="50"/>
       <c r="AJ42" s="52"/>
     </row>
-    <row r="43" spans="1:37" ht="18" customHeight="1">
+    <row r="43" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="249" t="s">
         <v>73</v>
       </c>
@@ -6806,7 +6845,7 @@
       <c r="AI43" s="29"/>
       <c r="AJ43" s="40"/>
     </row>
-    <row r="44" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="44" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>51</v>
       </c>
@@ -6864,7 +6903,7 @@
       <c r="AI44" s="201"/>
       <c r="AJ44" s="204"/>
     </row>
-    <row r="45" spans="1:37" ht="18" customHeight="1">
+    <row r="45" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="167" t="s">
         <v>91</v>
       </c>
@@ -6959,7 +6998,7 @@
       </c>
       <c r="AK45" s="93"/>
     </row>
-    <row r="46" spans="1:37" ht="18" customHeight="1">
+    <row r="46" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="184" t="s">
         <v>83</v>
       </c>
@@ -7004,7 +7043,7 @@
       <c r="AJ46" s="187"/>
       <c r="AK46" s="93"/>
     </row>
-    <row r="47" spans="1:37" ht="18" customHeight="1">
+    <row r="47" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="184" t="s">
         <v>92</v>
       </c>
@@ -7045,7 +7084,7 @@
       <c r="AJ47" s="187"/>
       <c r="AK47" s="93"/>
     </row>
-    <row r="48" spans="1:37" ht="18" customHeight="1">
+    <row r="48" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="184" t="s">
         <v>93</v>
       </c>
@@ -7116,7 +7155,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="18" customHeight="1">
+    <row r="49" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="184" t="s">
         <v>96</v>
       </c>
@@ -7169,7 +7208,7 @@
       <c r="AJ49" s="77"/>
       <c r="AK49" s="239"/>
     </row>
-    <row r="50" spans="1:38" ht="18" customHeight="1">
+    <row r="50" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="184" t="s">
         <v>98</v>
       </c>
@@ -7270,7 +7309,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="18" customHeight="1">
+    <row r="51" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>94</v>
       </c>
@@ -7370,7 +7409,7 @@
       </c>
       <c r="AL51" s="93"/>
     </row>
-    <row r="52" spans="1:38" ht="18" customHeight="1">
+    <row r="52" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>95</v>
       </c>
@@ -7469,19 +7508,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="18" customHeight="1">
+    <row r="53" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="463" t="s">
+      <c r="B53" s="455" t="s">
         <v>101</v>
       </c>
-      <c r="C53" s="464"/>
-      <c r="D53" s="464"/>
-      <c r="E53" s="464"/>
-      <c r="F53" s="464"/>
-      <c r="G53" s="464"/>
-      <c r="H53" s="465"/>
+      <c r="C53" s="456"/>
+      <c r="D53" s="456"/>
+      <c r="E53" s="456"/>
+      <c r="F53" s="456"/>
+      <c r="G53" s="456"/>
+      <c r="H53" s="457"/>
       <c r="I53" s="105"/>
       <c r="J53" s="53"/>
       <c r="K53" s="53"/>
@@ -7511,24 +7550,22 @@
       <c r="Y53" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="Z53" s="469" t="s">
+      <c r="Z53" s="461"/>
+      <c r="AA53" s="459"/>
+      <c r="AB53" s="459"/>
+      <c r="AC53" s="462"/>
+      <c r="AD53" s="458" t="s">
         <v>103</v>
       </c>
-      <c r="AA53" s="467"/>
-      <c r="AB53" s="467"/>
-      <c r="AC53" s="470"/>
-      <c r="AD53" s="466" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE53" s="467"/>
-      <c r="AF53" s="467"/>
-      <c r="AG53" s="467"/>
-      <c r="AH53" s="467"/>
-      <c r="AI53" s="467"/>
-      <c r="AJ53" s="468"/>
+      <c r="AE53" s="459"/>
+      <c r="AF53" s="459"/>
+      <c r="AG53" s="459"/>
+      <c r="AH53" s="459"/>
+      <c r="AI53" s="459"/>
+      <c r="AJ53" s="460"/>
       <c r="AK53" s="93"/>
     </row>
-    <row r="54" spans="1:38" ht="18" customHeight="1">
+    <row r="54" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>89</v>
       </c>
@@ -7609,7 +7646,7 @@
       </c>
       <c r="AK54" s="93"/>
     </row>
-    <row r="55" spans="1:38" ht="18" customHeight="1">
+    <row r="55" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>76</v>
       </c>
@@ -7643,16 +7680,16 @@
       <c r="AA55" s="53"/>
       <c r="AB55" s="53"/>
       <c r="AC55" s="103"/>
-      <c r="AD55" s="466"/>
-      <c r="AE55" s="467"/>
-      <c r="AF55" s="467"/>
-      <c r="AG55" s="467"/>
-      <c r="AH55" s="467"/>
-      <c r="AI55" s="467"/>
-      <c r="AJ55" s="468"/>
+      <c r="AD55" s="458"/>
+      <c r="AE55" s="459"/>
+      <c r="AF55" s="459"/>
+      <c r="AG55" s="459"/>
+      <c r="AH55" s="459"/>
+      <c r="AI55" s="459"/>
+      <c r="AJ55" s="460"/>
       <c r="AK55" s="93"/>
     </row>
-    <row r="56" spans="1:38" ht="20.25" customHeight="1">
+    <row r="56" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>90</v>
       </c>
@@ -7743,7 +7780,7 @@
       </c>
       <c r="AK56" s="94"/>
     </row>
-    <row r="57" spans="1:38" ht="13.5" thickBot="1">
+    <row r="57" spans="1:38" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="57"/>
       <c r="C57" s="57"/>
       <c r="D57" s="57"/>
@@ -7780,61 +7817,67 @@
       <c r="AI57" s="57"/>
       <c r="AJ57" s="57"/>
     </row>
-    <row r="58" spans="1:38" ht="21" thickBot="1">
+    <row r="58" spans="1:38" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="471" t="s">
+      <c r="B58" s="463" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="472"/>
-      <c r="D58" s="472"/>
-      <c r="E58" s="472"/>
-      <c r="F58" s="472"/>
-      <c r="G58" s="472"/>
-      <c r="H58" s="474"/>
-      <c r="I58" s="471" t="s">
+      <c r="C58" s="464"/>
+      <c r="D58" s="464"/>
+      <c r="E58" s="464"/>
+      <c r="F58" s="464"/>
+      <c r="G58" s="464"/>
+      <c r="H58" s="466"/>
+      <c r="I58" s="463" t="s">
         <v>30</v>
       </c>
-      <c r="J58" s="472"/>
-      <c r="K58" s="472"/>
-      <c r="L58" s="472"/>
-      <c r="M58" s="472"/>
-      <c r="N58" s="472"/>
-      <c r="O58" s="474"/>
-      <c r="P58" s="471" t="s">
+      <c r="J58" s="464"/>
+      <c r="K58" s="464"/>
+      <c r="L58" s="464"/>
+      <c r="M58" s="464"/>
+      <c r="N58" s="464"/>
+      <c r="O58" s="466"/>
+      <c r="P58" s="463" t="s">
         <v>41</v>
       </c>
-      <c r="Q58" s="472"/>
-      <c r="R58" s="472"/>
-      <c r="S58" s="472"/>
-      <c r="T58" s="472"/>
-      <c r="U58" s="472"/>
-      <c r="V58" s="474"/>
-      <c r="W58" s="471" t="s">
+      <c r="Q58" s="464"/>
+      <c r="R58" s="464"/>
+      <c r="S58" s="464"/>
+      <c r="T58" s="464"/>
+      <c r="U58" s="464"/>
+      <c r="V58" s="466"/>
+      <c r="W58" s="463" t="s">
         <v>27</v>
       </c>
-      <c r="X58" s="472"/>
-      <c r="Y58" s="472"/>
-      <c r="Z58" s="472"/>
-      <c r="AA58" s="472"/>
-      <c r="AB58" s="472"/>
-      <c r="AC58" s="474"/>
-      <c r="AD58" s="471" t="s">
+      <c r="X58" s="464"/>
+      <c r="Y58" s="464"/>
+      <c r="Z58" s="464"/>
+      <c r="AA58" s="464"/>
+      <c r="AB58" s="464"/>
+      <c r="AC58" s="466"/>
+      <c r="AD58" s="463" t="s">
         <v>32</v>
       </c>
-      <c r="AE58" s="472"/>
-      <c r="AF58" s="472"/>
-      <c r="AG58" s="472"/>
-      <c r="AH58" s="472"/>
-      <c r="AI58" s="472"/>
-      <c r="AJ58" s="473"/>
-    </row>
-    <row r="62" spans="1:38">
+      <c r="AE58" s="464"/>
+      <c r="AF58" s="464"/>
+      <c r="AG58" s="464"/>
+      <c r="AH58" s="464"/>
+      <c r="AI58" s="464"/>
+      <c r="AJ58" s="465"/>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O62" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="AD2:AJ2"/>
     <mergeCell ref="B53:H53"/>
     <mergeCell ref="AD53:AJ53"/>
     <mergeCell ref="Z53:AC53"/>
@@ -7844,12 +7887,6 @@
     <mergeCell ref="B58:H58"/>
     <mergeCell ref="I58:O58"/>
     <mergeCell ref="P58:V58"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="W2:AC2"/>
-    <mergeCell ref="AD2:AJ2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7861,30 +7898,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="311"/>
-    <col min="2" max="2" width="16.42578125" style="311" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="311" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="311" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="311"/>
+    <col min="1" max="1" width="8.88671875" style="311"/>
+    <col min="2" max="2" width="16.44140625" style="311" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="311" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="311" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="311"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="19.5" thickBot="1">
+    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="475" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="475"/>
       <c r="D1" s="475"/>
     </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1">
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="420"/>
       <c r="C2" s="79" t="s">
         <v>19</v>
@@ -7893,12 +7930,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1">
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="422"/>
       <c r="C3" s="79"/>
       <c r="D3" s="80"/>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1">
+    <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="177"/>
       <c r="C4" s="79" t="s">
         <v>19</v>
@@ -7907,12 +7944,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1">
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="422"/>
       <c r="C5" s="79"/>
       <c r="D5" s="80"/>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1">
+    <row r="6" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="124"/>
       <c r="C6" s="79" t="s">
         <v>19</v>
@@ -7921,12 +7958,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1">
+    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="422"/>
       <c r="C7" s="79"/>
       <c r="D7" s="80"/>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1">
+    <row r="8" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="125"/>
       <c r="C8" s="79" t="s">
         <v>19</v>
@@ -7935,12 +7972,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1">
+    <row r="9" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="422"/>
       <c r="C9" s="79"/>
       <c r="D9" s="80"/>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1">
+    <row r="10" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="81"/>
       <c r="C10" s="79" t="s">
         <v>19</v>
@@ -7949,12 +7986,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1">
+    <row r="11" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="126"/>
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1">
+    <row r="12" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="222"/>
       <c r="C12" s="79" t="s">
         <v>19</v>
@@ -7963,12 +8000,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1">
+    <row r="13" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="126"/>
       <c r="C13" s="218"/>
       <c r="D13" s="80"/>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1">
+    <row r="14" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="313"/>
       <c r="C14" s="79" t="s">
         <v>19</v>
@@ -7978,12 +8015,12 @@
       </c>
       <c r="F14" s="312"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1">
+    <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="423"/>
       <c r="C15" s="79"/>
       <c r="D15" s="127"/>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1">
+    <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="128"/>
       <c r="C16" s="79" t="s">
         <v>19</v>
@@ -7992,12 +8029,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1">
+    <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="422"/>
       <c r="C17" s="79"/>
       <c r="D17" s="80"/>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1">
+    <row r="18" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="178"/>
       <c r="C18" s="79" t="s">
         <v>19</v>
@@ -8006,12 +8043,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1">
+    <row r="19" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="422"/>
       <c r="C19" s="79"/>
       <c r="D19" s="80"/>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1">
+    <row r="20" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="82"/>
       <c r="C20" s="79" t="s">
         <v>19</v>
@@ -8020,12 +8057,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1">
+    <row r="21" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="422"/>
       <c r="C21" s="79"/>
       <c r="D21" s="80"/>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1">
+    <row r="22" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="142"/>
       <c r="C22" s="79" t="s">
         <v>19</v>
@@ -8034,12 +8071,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1">
+    <row r="23" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="422"/>
       <c r="C23" s="79"/>
       <c r="D23" s="80"/>
     </row>
-    <row r="24" spans="2:4" ht="18.75" thickBot="1">
+    <row r="24" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="83"/>
       <c r="C24" s="79" t="s">
         <v>19</v>
@@ -8048,12 +8085,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="18.75" thickBot="1">
+    <row r="25" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="422"/>
       <c r="C25" s="79"/>
       <c r="D25" s="80"/>
     </row>
-    <row r="26" spans="2:4" ht="18.75" thickBot="1">
+    <row r="26" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="84"/>
       <c r="C26" s="79" t="s">
         <v>19</v>
@@ -8062,12 +8099,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1">
+    <row r="27" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="422"/>
       <c r="C27" s="422"/>
       <c r="D27" s="80"/>
     </row>
-    <row r="28" spans="2:4" ht="21" thickBot="1">
+    <row r="28" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85"/>
       <c r="C28" s="79" t="s">
         <v>19</v>
@@ -8076,41 +8113,41 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1">
+    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="422"/>
       <c r="C29" s="422"/>
       <c r="D29" s="422"/>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1">
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="129"/>
       <c r="C30" s="422"/>
       <c r="D30" s="80" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" thickBot="1">
+    <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="422"/>
       <c r="C31" s="422"/>
       <c r="D31" s="80"/>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1">
+    <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="86"/>
       <c r="C32" s="422"/>
       <c r="D32" s="80" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="422"/>
       <c r="C33" s="422"/>
       <c r="D33" s="422"/>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1">
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="422"/>
       <c r="C34" s="422"/>
       <c r="D34" s="422"/>
     </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1">
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="130"/>
       <c r="C35" s="422"/>
       <c r="D35" s="80" t="s">
